--- a/0-data/Variable List IBIS bdg-jkt.xlsx
+++ b/0-data/Variable List IBIS bdg-jkt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24422"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ihsan/Documents/eocru/ibis/0-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{ADC6E101-3467-45E3-886A-D5AF8E706731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0C223A5-D0FB-41BA-ADE8-154F6E6B108D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEC6723-882E-9A42-AB1A-4638FF660219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="12" xr2:uid="{158CEAC0-651B-4A14-A38B-3B77EA324768}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{158CEAC0-651B-4A14-A38B-3B77EA324768}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Screening" sheetId="2" r:id="rId1"/>
@@ -6536,7 +6536,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7158,30 +7158,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE17A937-606D-4F42-A668-EA388EEF944C}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="117" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="58.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="58.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="17"/>
-    <col min="12" max="12" width="44.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="17"/>
+    <col min="12" max="12" width="44.83203125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>29</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>37</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>41</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>44</v>
       </c>
@@ -7444,7 +7444,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>50</v>
       </c>
@@ -7472,7 +7472,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>56</v>
       </c>
@@ -7498,7 +7498,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>59</v>
       </c>
@@ -7524,7 +7524,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>61</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>67</v>
       </c>
@@ -7578,7 +7578,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="16"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>70</v>
       </c>
@@ -7604,7 +7604,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="16"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>72</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>75</v>
       </c>
@@ -7658,7 +7658,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>78</v>
       </c>
@@ -7684,7 +7684,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>80</v>
       </c>
@@ -7704,7 +7704,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="16"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>84</v>
       </c>
@@ -7724,7 +7724,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="16"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>87</v>
       </c>
@@ -7750,7 +7750,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>90</v>
       </c>
@@ -7776,7 +7776,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="16"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>92</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>95</v>
       </c>
@@ -7830,7 +7830,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="16"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>99</v>
       </c>
@@ -7856,7 +7856,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="16"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>102</v>
       </c>
@@ -7882,7 +7882,7 @@
       <c r="I27" s="5"/>
       <c r="J27" s="16"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>105</v>
       </c>
@@ -7908,7 +7908,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="16"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>108</v>
       </c>
@@ -7922,7 +7922,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="16"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>109</v>
       </c>
@@ -7936,7 +7936,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="16"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
     </row>
   </sheetData>
@@ -7950,26 +7950,26 @@
   <dimension ref="A1:L176"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" customWidth="1"/>
-    <col min="10" max="10" width="45.140625" customWidth="1"/>
-    <col min="11" max="12" width="8.7109375" style="17"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5" customWidth="1"/>
+    <col min="10" max="10" width="45.1640625" customWidth="1"/>
+    <col min="11" max="12" width="8.6640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8003,7 +8003,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>1639</v>
       </c>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>1642</v>
       </c>
@@ -8181,7 +8181,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>1645</v>
       </c>
@@ -8211,7 +8211,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>1650</v>
       </c>
@@ -8237,7 +8237,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>1652</v>
       </c>
@@ -8265,7 +8265,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>1655</v>
       </c>
@@ -8295,7 +8295,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>1657</v>
       </c>
@@ -8325,7 +8325,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>1659</v>
       </c>
@@ -8351,7 +8351,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>1661</v>
       </c>
@@ -8379,7 +8379,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>1664</v>
       </c>
@@ -8409,7 +8409,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>1666</v>
       </c>
@@ -8439,7 +8439,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>1668</v>
       </c>
@@ -8465,7 +8465,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>1670</v>
       </c>
@@ -8493,7 +8493,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>1673</v>
       </c>
@@ -8523,7 +8523,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>1675</v>
       </c>
@@ -8553,7 +8553,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>1677</v>
       </c>
@@ -8579,7 +8579,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>1679</v>
       </c>
@@ -8607,7 +8607,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>1682</v>
       </c>
@@ -8637,7 +8637,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>1684</v>
       </c>
@@ -8667,7 +8667,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>1686</v>
       </c>
@@ -8693,7 +8693,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>1688</v>
       </c>
@@ -8721,7 +8721,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>1691</v>
       </c>
@@ -8751,7 +8751,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>1693</v>
       </c>
@@ -8781,7 +8781,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>1695</v>
       </c>
@@ -8807,7 +8807,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>1697</v>
       </c>
@@ -8835,7 +8835,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>1700</v>
       </c>
@@ -8865,7 +8865,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>1702</v>
       </c>
@@ -8895,7 +8895,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>1704</v>
       </c>
@@ -8921,7 +8921,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>1706</v>
       </c>
@@ -8949,7 +8949,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>1709</v>
       </c>
@@ -8979,7 +8979,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>1711</v>
       </c>
@@ -9009,7 +9009,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>1713</v>
       </c>
@@ -9035,7 +9035,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>670</v>
       </c>
@@ -9063,7 +9063,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>672</v>
       </c>
@@ -9093,7 +9093,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>1718</v>
       </c>
@@ -9123,7 +9123,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>1720</v>
       </c>
@@ -9149,7 +9149,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>1722</v>
       </c>
@@ -9177,7 +9177,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>1725</v>
       </c>
@@ -9207,7 +9207,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>1727</v>
       </c>
@@ -9237,7 +9237,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>1729</v>
       </c>
@@ -9263,7 +9263,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>1731</v>
       </c>
@@ -9291,7 +9291,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>1734</v>
       </c>
@@ -9321,7 +9321,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>1736</v>
       </c>
@@ -9351,7 +9351,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>1738</v>
       </c>
@@ -9377,7 +9377,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>1740</v>
       </c>
@@ -9405,7 +9405,7 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>1743</v>
       </c>
@@ -9435,7 +9435,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>1745</v>
       </c>
@@ -9465,7 +9465,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>1747</v>
       </c>
@@ -9491,7 +9491,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>684</v>
       </c>
@@ -9519,7 +9519,7 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>686</v>
       </c>
@@ -9549,7 +9549,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>1752</v>
       </c>
@@ -9579,7 +9579,7 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>1754</v>
       </c>
@@ -9605,7 +9605,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>693</v>
       </c>
@@ -9633,7 +9633,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>691</v>
       </c>
@@ -9663,7 +9663,7 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>1759</v>
       </c>
@@ -9693,7 +9693,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>1761</v>
       </c>
@@ -9719,7 +9719,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>698</v>
       </c>
@@ -9747,7 +9747,7 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>700</v>
       </c>
@@ -9777,7 +9777,7 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>1766</v>
       </c>
@@ -9807,7 +9807,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>1768</v>
       </c>
@@ -9833,7 +9833,7 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>1770</v>
       </c>
@@ -9861,7 +9861,7 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
         <v>1773</v>
       </c>
@@ -9891,7 +9891,7 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>1775</v>
       </c>
@@ -9921,7 +9921,7 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>1777</v>
       </c>
@@ -9947,7 +9947,7 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>712</v>
       </c>
@@ -9975,7 +9975,7 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>1781</v>
       </c>
@@ -10005,7 +10005,7 @@
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>714</v>
       </c>
@@ -10035,7 +10035,7 @@
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>1784</v>
       </c>
@@ -10061,7 +10061,7 @@
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>721</v>
       </c>
@@ -10089,7 +10089,7 @@
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
         <v>719</v>
       </c>
@@ -10119,7 +10119,7 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>1789</v>
       </c>
@@ -10149,7 +10149,7 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>1791</v>
       </c>
@@ -10175,7 +10175,7 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
         <v>735</v>
       </c>
@@ -10203,7 +10203,7 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
         <v>1795</v>
       </c>
@@ -10233,7 +10233,7 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
         <v>733</v>
       </c>
@@ -10263,7 +10263,7 @@
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>1798</v>
       </c>
@@ -10289,7 +10289,7 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>1800</v>
       </c>
@@ -10319,7 +10319,7 @@
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
         <v>1803</v>
       </c>
@@ -10349,7 +10349,7 @@
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
         <v>1805</v>
       </c>
@@ -10379,7 +10379,7 @@
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>1807</v>
       </c>
@@ -10405,7 +10405,7 @@
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>1809</v>
       </c>
@@ -10433,7 +10433,7 @@
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
         <v>749</v>
       </c>
@@ -10463,7 +10463,7 @@
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
         <v>747</v>
       </c>
@@ -10493,7 +10493,7 @@
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>1814</v>
       </c>
@@ -10519,7 +10519,7 @@
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
         <v>1816</v>
       </c>
@@ -10547,7 +10547,7 @@
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>1819</v>
       </c>
@@ -10577,7 +10577,7 @@
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
         <v>1821</v>
       </c>
@@ -10607,7 +10607,7 @@
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>1823</v>
       </c>
@@ -10633,7 +10633,7 @@
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>1825</v>
       </c>
@@ -10661,7 +10661,7 @@
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>1828</v>
       </c>
@@ -10691,7 +10691,7 @@
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>1830</v>
       </c>
@@ -10721,7 +10721,7 @@
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>1832</v>
       </c>
@@ -10747,7 +10747,7 @@
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>1834</v>
       </c>
@@ -10773,7 +10773,7 @@
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>1837</v>
       </c>
@@ -10799,7 +10799,7 @@
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>1840</v>
       </c>
@@ -10825,7 +10825,7 @@
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>1843</v>
       </c>
@@ -10853,7 +10853,7 @@
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>1847</v>
       </c>
@@ -10881,7 +10881,7 @@
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>1849</v>
       </c>
@@ -10911,7 +10911,7 @@
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>1851</v>
       </c>
@@ -10941,7 +10941,7 @@
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>1853</v>
       </c>
@@ -10967,7 +10967,7 @@
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>1855</v>
       </c>
@@ -10993,7 +10993,7 @@
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>1858</v>
       </c>
@@ -11021,7 +11021,7 @@
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>1860</v>
       </c>
@@ -11051,7 +11051,7 @@
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>1862</v>
       </c>
@@ -11081,7 +11081,7 @@
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>1864</v>
       </c>
@@ -11107,7 +11107,7 @@
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>1866</v>
       </c>
@@ -11133,7 +11133,7 @@
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>1869</v>
       </c>
@@ -11161,7 +11161,7 @@
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>1871</v>
       </c>
@@ -11191,7 +11191,7 @@
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>1873</v>
       </c>
@@ -11221,7 +11221,7 @@
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>1875</v>
       </c>
@@ -11247,7 +11247,7 @@
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="5" t="s">
         <v>1877</v>
@@ -11269,7 +11269,7 @@
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="5" t="s">
         <v>1879</v>
@@ -11293,7 +11293,7 @@
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="5" t="s">
         <v>1880</v>
@@ -11317,7 +11317,7 @@
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="5" t="s">
         <v>1881</v>
@@ -11341,7 +11341,7 @@
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="5" t="s">
         <v>1882</v>
@@ -11363,7 +11363,7 @@
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="5" t="s">
         <v>1883</v>
@@ -11385,7 +11385,7 @@
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="5" t="s">
         <v>1885</v>
@@ -11409,7 +11409,7 @@
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="5" t="s">
         <v>1886</v>
@@ -11433,7 +11433,7 @@
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="5" t="s">
         <v>1887</v>
@@ -11457,7 +11457,7 @@
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="5" t="s">
         <v>1888</v>
@@ -11479,7 +11479,7 @@
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="5" t="s">
         <v>1889</v>
@@ -11501,7 +11501,7 @@
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="5" t="s">
         <v>1891</v>
@@ -11525,7 +11525,7 @@
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="5" t="s">
         <v>1892</v>
@@ -11549,7 +11549,7 @@
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="5" t="s">
         <v>1893</v>
@@ -11573,7 +11573,7 @@
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="5" t="s">
         <v>1894</v>
@@ -11595,7 +11595,7 @@
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="5" t="s">
         <v>1895</v>
@@ -11617,7 +11617,7 @@
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="5" t="s">
         <v>1897</v>
@@ -11641,7 +11641,7 @@
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="5" t="s">
         <v>1898</v>
@@ -11665,7 +11665,7 @@
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="5" t="s">
         <v>1899</v>
@@ -11689,7 +11689,7 @@
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="5" t="s">
         <v>1900</v>
@@ -11711,7 +11711,7 @@
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="5" t="s">
         <v>1901</v>
@@ -11733,7 +11733,7 @@
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="5" t="s">
         <v>1903</v>
@@ -11757,7 +11757,7 @@
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="5" t="s">
         <v>1904</v>
@@ -11781,7 +11781,7 @@
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="5" t="s">
         <v>1905</v>
@@ -11805,7 +11805,7 @@
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="5" t="s">
         <v>1906</v>
@@ -11827,7 +11827,7 @@
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="5" t="s">
         <v>1907</v>
@@ -11849,7 +11849,7 @@
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="5" t="s">
         <v>1909</v>
@@ -11873,7 +11873,7 @@
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="5" t="s">
         <v>1910</v>
@@ -11897,7 +11897,7 @@
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="5" t="s">
         <v>1911</v>
@@ -11921,7 +11921,7 @@
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
       <c r="B146" s="5" t="s">
         <v>1912</v>
@@ -11943,7 +11943,7 @@
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
       <c r="B147" s="5" t="s">
         <v>1913</v>
@@ -11965,7 +11965,7 @@
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
       <c r="B148" s="5" t="s">
         <v>1915</v>
@@ -11989,7 +11989,7 @@
       <c r="K148" s="5"/>
       <c r="L148" s="5"/>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="B149" s="5" t="s">
         <v>1916</v>
@@ -12013,7 +12013,7 @@
       <c r="K149" s="5"/>
       <c r="L149" s="5"/>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
       <c r="B150" s="5" t="s">
         <v>1917</v>
@@ -12037,7 +12037,7 @@
       <c r="K150" s="5"/>
       <c r="L150" s="5"/>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="B151" s="5" t="s">
         <v>1918</v>
@@ -12059,7 +12059,7 @@
       <c r="K151" s="5"/>
       <c r="L151" s="5"/>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="B152" s="5" t="s">
         <v>1919</v>
@@ -12081,7 +12081,7 @@
       <c r="K152" s="5"/>
       <c r="L152" s="5"/>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
       <c r="B153" s="5" t="s">
         <v>1921</v>
@@ -12105,7 +12105,7 @@
       <c r="K153" s="5"/>
       <c r="L153" s="5"/>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
       <c r="B154" s="5" t="s">
         <v>1922</v>
@@ -12129,7 +12129,7 @@
       <c r="K154" s="5"/>
       <c r="L154" s="5"/>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
       <c r="B155" s="5" t="s">
         <v>1923</v>
@@ -12153,7 +12153,7 @@
       <c r="K155" s="5"/>
       <c r="L155" s="5"/>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
       <c r="B156" s="5" t="s">
         <v>1924</v>
@@ -12175,7 +12175,7 @@
       <c r="K156" s="5"/>
       <c r="L156" s="5"/>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
       <c r="B157" s="5" t="s">
         <v>1925</v>
@@ -12197,7 +12197,7 @@
       <c r="K157" s="5"/>
       <c r="L157" s="5"/>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
       <c r="B158" s="5" t="s">
         <v>1927</v>
@@ -12221,7 +12221,7 @@
       <c r="K158" s="5"/>
       <c r="L158" s="5"/>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="5" t="s">
         <v>1928</v>
@@ -12245,7 +12245,7 @@
       <c r="K159" s="5"/>
       <c r="L159" s="5"/>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
       <c r="B160" s="5" t="s">
         <v>1929</v>
@@ -12269,7 +12269,7 @@
       <c r="K160" s="5"/>
       <c r="L160" s="5"/>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
       <c r="B161" s="5" t="s">
         <v>1930</v>
@@ -12291,7 +12291,7 @@
       <c r="K161" s="5"/>
       <c r="L161" s="5"/>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
       <c r="B162" s="5" t="s">
         <v>1931</v>
@@ -12313,7 +12313,7 @@
       <c r="K162" s="5"/>
       <c r="L162" s="5"/>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
       <c r="B163" s="5" t="s">
         <v>1933</v>
@@ -12337,7 +12337,7 @@
       <c r="K163" s="5"/>
       <c r="L163" s="5"/>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
       <c r="B164" s="5" t="s">
         <v>1934</v>
@@ -12361,7 +12361,7 @@
       <c r="K164" s="5"/>
       <c r="L164" s="5"/>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
       <c r="B165" s="5" t="s">
         <v>1935</v>
@@ -12385,7 +12385,7 @@
       <c r="K165" s="5"/>
       <c r="L165" s="5"/>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
       <c r="B166" s="5" t="s">
         <v>1936</v>
@@ -12407,7 +12407,7 @@
       <c r="K166" s="5"/>
       <c r="L166" s="5"/>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
       <c r="B167" s="5" t="s">
         <v>1937</v>
@@ -12429,7 +12429,7 @@
       <c r="K167" s="5"/>
       <c r="L167" s="5"/>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
       <c r="B168" s="5" t="s">
         <v>1939</v>
@@ -12453,7 +12453,7 @@
       <c r="K168" s="5"/>
       <c r="L168" s="5"/>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
       <c r="B169" s="5" t="s">
         <v>1940</v>
@@ -12477,7 +12477,7 @@
       <c r="K169" s="5"/>
       <c r="L169" s="5"/>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
       <c r="B170" s="5" t="s">
         <v>1941</v>
@@ -12501,7 +12501,7 @@
       <c r="K170" s="5"/>
       <c r="L170" s="5"/>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
       <c r="B171" s="5" t="s">
         <v>1942</v>
@@ -12523,7 +12523,7 @@
       <c r="K171" s="5"/>
       <c r="L171" s="5"/>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
       <c r="B172" s="5" t="s">
         <v>1943</v>
@@ -12545,7 +12545,7 @@
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
       <c r="B173" s="5" t="s">
         <v>1945</v>
@@ -12569,7 +12569,7 @@
       <c r="K173" s="5"/>
       <c r="L173" s="5"/>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
       <c r="B174" s="5" t="s">
         <v>1946</v>
@@ -12593,7 +12593,7 @@
       <c r="K174" s="5"/>
       <c r="L174" s="5"/>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
       <c r="B175" s="5" t="s">
         <v>1947</v>
@@ -12617,7 +12617,7 @@
       <c r="K175" s="5"/>
       <c r="L175" s="5"/>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
       <c r="B176" s="5" t="s">
         <v>1948</v>
@@ -12653,19 +12653,19 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.42578125" customWidth="1"/>
+    <col min="10" max="10" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -12699,7 +12699,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -12735,7 +12735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -12761,7 +12761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -12789,7 +12789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>611</v>
       </c>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>1953</v>
       </c>
@@ -12879,7 +12879,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>1956</v>
       </c>
@@ -12909,7 +12909,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>1959</v>
       </c>
@@ -12939,7 +12939,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>1962</v>
       </c>
@@ -12969,7 +12969,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>1965</v>
       </c>
@@ -12999,7 +12999,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>1968</v>
       </c>
@@ -13029,7 +13029,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>1971</v>
       </c>
@@ -13059,7 +13059,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>1974</v>
       </c>
@@ -13089,7 +13089,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>1977</v>
       </c>
@@ -13119,7 +13119,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>1980</v>
       </c>
@@ -13149,7 +13149,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>1983</v>
       </c>
@@ -13179,7 +13179,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>1986</v>
       </c>
@@ -13205,7 +13205,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>1989</v>
       </c>
@@ -13231,7 +13231,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>1992</v>
       </c>
@@ -13271,26 +13271,26 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="15" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="4"/>
-    <col min="9" max="9" width="40.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="31.42578125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="8" width="9.1640625" style="4"/>
+    <col min="9" max="9" width="40.1640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="31.5" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -13324,7 +13324,7 @@
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
         <v>10</v>
       </c>
@@ -13342,7 +13342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="45" t="s">
         <v>12</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
@@ -13386,7 +13386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
         <v>20</v>
       </c>
@@ -13414,7 +13414,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
         <v>24</v>
       </c>
@@ -13442,7 +13442,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
         <v>1996</v>
       </c>
@@ -13472,7 +13472,7 @@
       </c>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="43" t="s">
         <v>1999</v>
       </c>
@@ -13502,7 +13502,7 @@
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="43" t="s">
         <v>2004</v>
       </c>
@@ -13532,7 +13532,7 @@
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="43" t="s">
         <v>2009</v>
       </c>
@@ -13562,7 +13562,7 @@
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
         <v>2012</v>
       </c>
@@ -13590,7 +13590,7 @@
       <c r="K11" s="38"/>
       <c r="L11" s="38"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="43" t="s">
         <v>2015</v>
       </c>
@@ -13616,7 +13616,7 @@
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="43" t="s">
         <v>2018</v>
       </c>
@@ -13644,7 +13644,7 @@
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="43" t="s">
         <v>2021</v>
       </c>
@@ -13674,7 +13674,7 @@
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="43" t="s">
         <v>2026</v>
       </c>
@@ -13700,7 +13700,7 @@
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="43" t="s">
         <v>2028</v>
       </c>
@@ -13730,7 +13730,7 @@
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="43" t="s">
         <v>2031</v>
       </c>
@@ -13756,7 +13756,7 @@
       <c r="K17" s="38"/>
       <c r="L17" s="38"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>2033</v>
       </c>
@@ -13786,7 +13786,7 @@
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
         <v>2036</v>
       </c>
@@ -13812,7 +13812,7 @@
       <c r="K19" s="38"/>
       <c r="L19" s="38"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="43" t="s">
         <v>786</v>
       </c>
@@ -13842,7 +13842,7 @@
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="43" t="s">
         <v>789</v>
       </c>
@@ -13868,7 +13868,7 @@
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="43" t="s">
         <v>2043</v>
       </c>
@@ -13898,7 +13898,7 @@
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="43" t="s">
         <v>2046</v>
       </c>
@@ -13924,7 +13924,7 @@
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="43" t="s">
         <v>2049</v>
       </c>
@@ -13956,7 +13956,7 @@
       <c r="K24" s="38"/>
       <c r="L24" s="38"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="43" t="s">
         <v>2052</v>
       </c>
@@ -13986,7 +13986,7 @@
       <c r="K25" s="38"/>
       <c r="L25" s="38"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="43" t="s">
         <v>1500</v>
       </c>
@@ -14016,7 +14016,7 @@
       <c r="K26" s="38"/>
       <c r="L26" s="38"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="43" t="s">
         <v>2059</v>
       </c>
@@ -14046,7 +14046,7 @@
       <c r="K27" s="38"/>
       <c r="L27" s="38"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="43" t="s">
         <v>1511</v>
       </c>
@@ -14076,7 +14076,7 @@
       <c r="K28" s="38"/>
       <c r="L28" s="38"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="43" t="s">
         <v>2064</v>
       </c>
@@ -14106,7 +14106,7 @@
       <c r="K29" s="38"/>
       <c r="L29" s="38"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="43" t="s">
         <v>2066</v>
       </c>
@@ -14136,7 +14136,7 @@
       <c r="K30" s="38"/>
       <c r="L30" s="38"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="43" t="s">
         <v>2068</v>
       </c>
@@ -14166,7 +14166,7 @@
       <c r="K31" s="38"/>
       <c r="L31" s="38"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="43" t="s">
         <v>2070</v>
       </c>
@@ -14196,7 +14196,7 @@
       <c r="K32" s="38"/>
       <c r="L32" s="38"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="43" t="s">
         <v>2072</v>
       </c>
@@ -14226,7 +14226,7 @@
       <c r="K33" s="38"/>
       <c r="L33" s="38"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="43" t="s">
         <v>2074</v>
       </c>
@@ -14256,7 +14256,7 @@
       <c r="K34" s="38"/>
       <c r="L34" s="38"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="43" t="s">
         <v>2078</v>
       </c>
@@ -14286,7 +14286,7 @@
       <c r="K35" s="38"/>
       <c r="L35" s="38"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="43" t="s">
         <v>2080</v>
       </c>
@@ -14316,7 +14316,7 @@
       <c r="K36" s="38"/>
       <c r="L36" s="38"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="43" t="s">
         <v>2082</v>
       </c>
@@ -14346,7 +14346,7 @@
       <c r="K37" s="38"/>
       <c r="L37" s="38"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="43" t="s">
         <v>2086</v>
       </c>
@@ -14372,7 +14372,7 @@
       <c r="K38" s="38"/>
       <c r="L38" s="38"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="43" t="s">
         <v>2088</v>
       </c>
@@ -14402,7 +14402,7 @@
       <c r="K39" s="38"/>
       <c r="L39" s="38"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="43" t="s">
         <v>2090</v>
       </c>
@@ -14428,7 +14428,7 @@
       <c r="K40" s="38"/>
       <c r="L40" s="38"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="43" t="s">
         <v>2093</v>
       </c>
@@ -14458,7 +14458,7 @@
       <c r="K41" s="38"/>
       <c r="L41" s="38"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="43" t="s">
         <v>2095</v>
       </c>
@@ -14488,7 +14488,7 @@
       <c r="K42" s="38"/>
       <c r="L42" s="38"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="43" t="s">
         <v>2097</v>
       </c>
@@ -14518,7 +14518,7 @@
       <c r="K43" s="38"/>
       <c r="L43" s="38"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="43" t="s">
         <v>2100</v>
       </c>
@@ -14544,7 +14544,7 @@
       <c r="K44" s="38"/>
       <c r="L44" s="38"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="43" t="s">
         <v>1566</v>
       </c>
@@ -14574,7 +14574,7 @@
       <c r="K45" s="38"/>
       <c r="L45" s="38"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="43" t="s">
         <v>1571</v>
       </c>
@@ -14604,7 +14604,7 @@
       <c r="K46" s="38"/>
       <c r="L46" s="38"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="43" t="s">
         <v>1576</v>
       </c>
@@ -14634,7 +14634,7 @@
       <c r="K47" s="38"/>
       <c r="L47" s="38"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="43" t="s">
         <v>1581</v>
       </c>
@@ -14664,7 +14664,7 @@
       <c r="K48" s="38"/>
       <c r="L48" s="38"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="50" t="s">
         <v>1596</v>
       </c>
@@ -14694,7 +14694,7 @@
       <c r="K49" s="38"/>
       <c r="L49" s="38"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="50" t="s">
         <v>1586</v>
       </c>
@@ -14724,7 +14724,7 @@
       <c r="K50" s="38"/>
       <c r="L50" s="38"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="50" t="s">
         <v>1591</v>
       </c>
@@ -14754,7 +14754,7 @@
       <c r="K51" s="38"/>
       <c r="L51" s="38"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="50" t="s">
         <v>1564</v>
       </c>
@@ -14780,7 +14780,7 @@
       <c r="K52" s="38"/>
       <c r="L52" s="38"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="51"/>
       <c r="B53" s="38" t="s">
         <v>2112</v>
@@ -14802,7 +14802,7 @@
       <c r="K53" s="38"/>
       <c r="L53" s="38"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="43" t="s">
         <v>2114</v>
       </c>
@@ -14828,7 +14828,7 @@
       <c r="K54" s="38"/>
       <c r="L54" s="38"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="43" t="s">
         <v>2117</v>
       </c>
@@ -14854,7 +14854,7 @@
       <c r="K55" s="38"/>
       <c r="L55" s="38"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="43" t="s">
         <v>2120</v>
       </c>
@@ -14880,7 +14880,7 @@
       <c r="K56" s="38"/>
       <c r="L56" s="38"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="43" t="s">
         <v>2123</v>
       </c>
@@ -14906,7 +14906,7 @@
       <c r="K57" s="38"/>
       <c r="L57" s="38"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="43" t="s">
         <v>1447</v>
       </c>
@@ -14934,7 +14934,7 @@
       <c r="K58" s="38"/>
       <c r="L58" s="38"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="43"/>
       <c r="B59" s="38" t="s">
         <v>2128</v>
@@ -14954,7 +14954,7 @@
       <c r="K59" s="38"/>
       <c r="L59" s="38"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="43" t="s">
         <v>2130</v>
       </c>
@@ -14984,7 +14984,7 @@
       <c r="K60" s="38"/>
       <c r="L60" s="38"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="43" t="s">
         <v>619</v>
       </c>
@@ -15014,7 +15014,7 @@
       <c r="K61" s="38"/>
       <c r="L61" s="38"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="43" t="s">
         <v>2139</v>
       </c>
@@ -15044,7 +15044,7 @@
       <c r="K62" s="38"/>
       <c r="L62" s="38"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="43" t="s">
         <v>2144</v>
       </c>
@@ -15074,7 +15074,7 @@
       <c r="K63" s="38"/>
       <c r="L63" s="38"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="43" t="s">
         <v>2149</v>
       </c>
@@ -15109,24 +15109,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42075AF-21FE-4E90-A6A7-729BA8F3D8C4}">
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
+    <sheetView zoomScale="231" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -15161,7 +15161,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
@@ -15188,7 +15188,7 @@
       </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
@@ -15213,7 +15213,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>119</v>
       </c>
@@ -15236,7 +15236,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>122</v>
       </c>
@@ -15267,7 +15267,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>143</v>
       </c>
@@ -15296,7 +15296,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>147</v>
       </c>
@@ -15327,7 +15327,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>156</v>
       </c>
@@ -15356,7 +15356,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>159</v>
       </c>
@@ -15387,7 +15387,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>164</v>
       </c>
@@ -15416,7 +15416,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>166</v>
       </c>
@@ -15447,7 +15447,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>171</v>
       </c>
@@ -15476,7 +15476,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>173</v>
       </c>
@@ -15507,7 +15507,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>178</v>
       </c>
@@ -15536,7 +15536,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>187</v>
       </c>
@@ -15567,7 +15567,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>192</v>
       </c>
@@ -15596,7 +15596,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>215</v>
       </c>
@@ -15627,7 +15627,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>220</v>
       </c>
@@ -15656,7 +15656,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>254</v>
       </c>
@@ -15687,7 +15687,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>401</v>
       </c>
@@ -15714,7 +15714,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>465</v>
       </c>
@@ -15741,7 +15741,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>468</v>
       </c>
@@ -15772,7 +15772,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>497</v>
       </c>
@@ -15803,7 +15803,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>500</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
         <v>503</v>
@@ -15859,7 +15859,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>505</v>
       </c>
@@ -15890,7 +15890,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>508</v>
       </c>
@@ -15921,7 +15921,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>511</v>
       </c>
@@ -15952,7 +15952,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>882</v>
       </c>
@@ -15981,7 +15981,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>900</v>
       </c>
@@ -16010,7 +16010,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>944</v>
       </c>
@@ -16039,7 +16039,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>973</v>
       </c>
@@ -16070,7 +16070,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>1029</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="5" t="s">
         <v>1047</v>
@@ -16124,7 +16124,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>1049</v>
       </c>
@@ -16153,7 +16153,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>243</v>
       </c>
@@ -16178,7 +16178,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>1199</v>
       </c>
@@ -16207,7 +16207,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>1203</v>
       </c>
@@ -16236,7 +16236,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>1206</v>
       </c>
@@ -16265,7 +16265,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>1209</v>
       </c>
@@ -16294,7 +16294,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>1215</v>
       </c>
@@ -16323,7 +16323,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="5" t="s">
         <v>1218</v>
@@ -16348,7 +16348,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>1230</v>
       </c>
@@ -16379,7 +16379,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>1233</v>
       </c>
@@ -16410,7 +16410,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>1236</v>
       </c>
@@ -16441,7 +16441,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>1270</v>
       </c>
@@ -16472,7 +16472,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>1273</v>
       </c>
@@ -16503,7 +16503,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>1276</v>
       </c>
@@ -16534,7 +16534,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>1279</v>
       </c>
@@ -16565,7 +16565,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>1282</v>
       </c>
@@ -16596,7 +16596,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>1285</v>
       </c>
@@ -16627,7 +16627,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>1312</v>
       </c>
@@ -16658,7 +16658,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>1316</v>
       </c>
@@ -16689,7 +16689,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>1320</v>
       </c>
@@ -16720,7 +16720,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>1324</v>
       </c>
@@ -16751,7 +16751,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="60" t="s">
         <v>1331</v>
       </c>
@@ -16778,7 +16778,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>1370</v>
       </c>
@@ -16809,7 +16809,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>1386</v>
       </c>
@@ -16840,7 +16840,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="58" t="s">
         <v>1450</v>
       </c>
@@ -16865,7 +16865,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="58" t="s">
         <v>1454</v>
       </c>
@@ -16896,7 +16896,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>1489</v>
       </c>
@@ -16925,7 +16925,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>1496</v>
       </c>
@@ -16956,7 +16956,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>1493</v>
       </c>
@@ -16987,7 +16987,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>1523</v>
       </c>
@@ -17018,7 +17018,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>1520</v>
       </c>
@@ -17049,7 +17049,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>1526</v>
       </c>
@@ -17080,7 +17080,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>1529</v>
       </c>
@@ -17111,7 +17111,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>1532</v>
       </c>
@@ -17142,7 +17142,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>1535</v>
       </c>
@@ -17173,7 +17173,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>1550</v>
       </c>
@@ -17204,7 +17204,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>1553</v>
       </c>
@@ -17235,7 +17235,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>1566</v>
       </c>
@@ -17268,7 +17268,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>1571</v>
       </c>
@@ -17301,7 +17301,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>1576</v>
       </c>
@@ -17334,7 +17334,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>1581</v>
       </c>
@@ -17367,7 +17367,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>1586</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>1591</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>1596</v>
       </c>
@@ -17462,7 +17462,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="60" t="s">
         <v>2004</v>
       </c>
@@ -17577,28 +17577,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD4A91F-2330-4E90-8DC7-44D746F84B78}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F120" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I88" sqref="I88:J88"/>
+    <sheetView tabSelected="1" zoomScale="186" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D96" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.140625" customWidth="1"/>
-    <col min="10" max="10" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="84.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.1640625" customWidth="1"/>
+    <col min="10" max="10" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -17632,7 +17632,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -17650,7 +17650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -17668,7 +17668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -17698,7 +17698,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -17726,7 +17726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -17754,7 +17754,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>110</v>
       </c>
@@ -17784,7 +17784,7 @@
       </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>113</v>
       </c>
@@ -17806,7 +17806,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>116</v>
       </c>
@@ -17828,7 +17828,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>119</v>
       </c>
@@ -17850,7 +17850,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>122</v>
       </c>
@@ -17880,7 +17880,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>127</v>
       </c>
@@ -17910,7 +17910,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>131</v>
       </c>
@@ -17940,7 +17940,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -17966,7 +17966,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>139</v>
       </c>
@@ -17994,7 +17994,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>143</v>
       </c>
@@ -18022,7 +18022,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>147</v>
       </c>
@@ -18052,7 +18052,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>152</v>
       </c>
@@ -18082,7 +18082,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>156</v>
       </c>
@@ -18110,7 +18110,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>159</v>
       </c>
@@ -18140,7 +18140,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>162</v>
       </c>
@@ -18170,7 +18170,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>164</v>
       </c>
@@ -18198,7 +18198,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>166</v>
       </c>
@@ -18228,7 +18228,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>169</v>
       </c>
@@ -18258,7 +18258,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>171</v>
       </c>
@@ -18286,7 +18286,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>173</v>
       </c>
@@ -18316,7 +18316,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>176</v>
       </c>
@@ -18346,7 +18346,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>178</v>
       </c>
@@ -18374,7 +18374,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>180</v>
       </c>
@@ -18404,7 +18404,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>183</v>
       </c>
@@ -18434,7 +18434,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>185</v>
       </c>
@@ -18462,7 +18462,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>187</v>
       </c>
@@ -18492,7 +18492,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>190</v>
       </c>
@@ -18522,7 +18522,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>192</v>
       </c>
@@ -18550,7 +18550,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>194</v>
       </c>
@@ -18580,7 +18580,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>197</v>
       </c>
@@ -18610,7 +18610,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>199</v>
       </c>
@@ -18638,7 +18638,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>201</v>
       </c>
@@ -18668,7 +18668,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>204</v>
       </c>
@@ -18698,7 +18698,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>206</v>
       </c>
@@ -18726,7 +18726,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>208</v>
       </c>
@@ -18756,7 +18756,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>211</v>
       </c>
@@ -18786,7 +18786,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>213</v>
       </c>
@@ -18814,7 +18814,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>215</v>
       </c>
@@ -18844,7 +18844,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>218</v>
       </c>
@@ -18874,7 +18874,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>220</v>
       </c>
@@ -18902,7 +18902,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>223</v>
       </c>
@@ -18932,7 +18932,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>228</v>
       </c>
@@ -18962,7 +18962,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>231</v>
       </c>
@@ -18992,7 +18992,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>236</v>
       </c>
@@ -19020,7 +19020,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>239</v>
       </c>
@@ -19050,7 +19050,7 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>241</v>
       </c>
@@ -19078,7 +19078,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>243</v>
       </c>
@@ -19108,7 +19108,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>248</v>
       </c>
@@ -19138,7 +19138,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>251</v>
       </c>
@@ -19168,7 +19168,7 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>254</v>
       </c>
@@ -19198,7 +19198,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>259</v>
       </c>
@@ -19228,7 +19228,7 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>262</v>
       </c>
@@ -19258,7 +19258,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>265</v>
       </c>
@@ -19288,7 +19288,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>270</v>
       </c>
@@ -19318,7 +19318,7 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>273</v>
       </c>
@@ -19348,7 +19348,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>278</v>
       </c>
@@ -19378,7 +19378,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>283</v>
       </c>
@@ -19408,7 +19408,7 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="37" t="s">
         <v>288</v>
       </c>
@@ -19440,7 +19440,7 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="37" t="s">
         <v>296</v>
       </c>
@@ -19470,7 +19470,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="37" t="s">
         <v>300</v>
       </c>
@@ -19500,7 +19500,7 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="37" t="s">
         <v>304</v>
       </c>
@@ -19530,7 +19530,7 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>307</v>
       </c>
@@ -19560,7 +19560,7 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>311</v>
       </c>
@@ -19590,7 +19590,7 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>314</v>
       </c>
@@ -19620,7 +19620,7 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="37" t="s">
         <v>317</v>
       </c>
@@ -19652,7 +19652,7 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="37" t="s">
         <v>322</v>
       </c>
@@ -19682,7 +19682,7 @@
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="37" t="s">
         <v>326</v>
       </c>
@@ -19712,7 +19712,7 @@
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="37" t="s">
         <v>330</v>
       </c>
@@ -19742,7 +19742,7 @@
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="37" t="s">
         <v>334</v>
       </c>
@@ -19772,7 +19772,7 @@
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="37" t="s">
         <v>339</v>
       </c>
@@ -19802,7 +19802,7 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="37" t="s">
         <v>343</v>
       </c>
@@ -19832,7 +19832,7 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="37" t="s">
         <v>347</v>
       </c>
@@ -19860,7 +19860,7 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>351</v>
       </c>
@@ -19888,7 +19888,7 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>356</v>
       </c>
@@ -19918,7 +19918,7 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>359</v>
       </c>
@@ -19948,7 +19948,7 @@
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>364</v>
       </c>
@@ -19978,7 +19978,7 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>367</v>
       </c>
@@ -20008,7 +20008,7 @@
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>372</v>
       </c>
@@ -20038,7 +20038,7 @@
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>375</v>
       </c>
@@ -20064,7 +20064,7 @@
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>378</v>
       </c>
@@ -20094,7 +20094,7 @@
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>381</v>
       </c>
@@ -20120,7 +20120,7 @@
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>383</v>
       </c>
@@ -20150,7 +20150,7 @@
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>386</v>
       </c>
@@ -20176,7 +20176,7 @@
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>389</v>
       </c>
@@ -20202,7 +20202,7 @@
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>392</v>
       </c>
@@ -20232,7 +20232,7 @@
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>397</v>
       </c>
@@ -20252,7 +20252,7 @@
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>399</v>
       </c>
@@ -20272,7 +20272,7 @@
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>401</v>
       </c>
@@ -20298,7 +20298,7 @@
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>404</v>
       </c>
@@ -20328,7 +20328,7 @@
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>409</v>
       </c>
@@ -20356,7 +20356,7 @@
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>413</v>
       </c>
@@ -20384,7 +20384,7 @@
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>417</v>
       </c>
@@ -20412,7 +20412,7 @@
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>421</v>
       </c>
@@ -20436,7 +20436,7 @@
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>424</v>
       </c>
@@ -20464,7 +20464,7 @@
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>428</v>
       </c>
@@ -20492,7 +20492,7 @@
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>432</v>
       </c>
@@ -20522,7 +20522,7 @@
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
         <v>436</v>
       </c>
@@ -20550,7 +20550,7 @@
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
         <v>440</v>
       </c>
@@ -20580,7 +20580,7 @@
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
         <v>444</v>
       </c>
@@ -20608,7 +20608,7 @@
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
         <v>447</v>
       </c>
@@ -20638,7 +20638,7 @@
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>449</v>
       </c>
@@ -20658,7 +20658,7 @@
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>451</v>
       </c>
@@ -20686,7 +20686,7 @@
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>455</v>
       </c>
@@ -20712,7 +20712,7 @@
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>458</v>
       </c>
@@ -20738,7 +20738,7 @@
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>461</v>
       </c>
@@ -20760,7 +20760,7 @@
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>463</v>
       </c>
@@ -20780,7 +20780,7 @@
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>465</v>
       </c>
@@ -20806,7 +20806,7 @@
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>468</v>
       </c>
@@ -20836,7 +20836,7 @@
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>471</v>
       </c>
@@ -20868,7 +20868,7 @@
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>475</v>
       </c>
@@ -20898,7 +20898,7 @@
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>478</v>
       </c>
@@ -20928,7 +20928,7 @@
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>481</v>
       </c>
@@ -20958,7 +20958,7 @@
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>484</v>
       </c>
@@ -20988,7 +20988,7 @@
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>487</v>
       </c>
@@ -21018,7 +21018,7 @@
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>492</v>
       </c>
@@ -21048,7 +21048,7 @@
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>497</v>
       </c>
@@ -21078,7 +21078,7 @@
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>500</v>
       </c>
@@ -21108,7 +21108,7 @@
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="5" t="s">
         <v>503</v>
@@ -21132,7 +21132,7 @@
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="37" t="s">
         <v>505</v>
       </c>
@@ -21162,7 +21162,7 @@
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="37" t="s">
         <v>508</v>
       </c>
@@ -21192,7 +21192,7 @@
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="37" t="s">
         <v>511</v>
       </c>
@@ -21222,7 +21222,7 @@
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>514</v>
       </c>
@@ -21252,7 +21252,7 @@
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>517</v>
       </c>
@@ -21303,29 +21303,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C91800-FF58-44D8-8697-8BF5EE6F1144}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+    <sheetView zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="47.140625" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="13" width="8.7109375" style="17"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="47.1640625" customWidth="1"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="13" width="8.6640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -21358,7 +21358,7 @@
       </c>
       <c r="K1" s="28"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -21377,7 +21377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -21396,7 +21396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -21423,7 +21423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -21452,7 +21452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -21481,7 +21481,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>520</v>
       </c>
@@ -21515,7 +21515,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>524</v>
       </c>
@@ -21544,7 +21544,7 @@
       </c>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>527</v>
       </c>
@@ -21573,7 +21573,7 @@
       </c>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>530</v>
       </c>
@@ -21602,7 +21602,7 @@
       </c>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>533</v>
       </c>
@@ -21631,7 +21631,7 @@
       </c>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>537</v>
       </c>
@@ -21658,7 +21658,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>541</v>
       </c>
@@ -21689,7 +21689,7 @@
       </c>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>546</v>
       </c>
@@ -21718,7 +21718,7 @@
       </c>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>550</v>
       </c>
@@ -21747,7 +21747,7 @@
       </c>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>553</v>
       </c>
@@ -21776,7 +21776,7 @@
       </c>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>557</v>
       </c>
@@ -21805,7 +21805,7 @@
       </c>
       <c r="K17" s="17"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>561</v>
       </c>
@@ -21834,7 +21834,7 @@
       </c>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>565</v>
       </c>
@@ -21863,7 +21863,7 @@
       </c>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>569</v>
       </c>
@@ -21890,7 +21890,7 @@
       <c r="J20" s="16"/>
       <c r="K20" s="17"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>572</v>
       </c>
@@ -21919,7 +21919,7 @@
       </c>
       <c r="K21" s="17"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>576</v>
       </c>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>581</v>
       </c>
@@ -21975,7 +21975,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>584</v>
       </c>
@@ -22004,7 +22004,7 @@
       </c>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>589</v>
       </c>
@@ -22033,7 +22033,7 @@
       </c>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>594</v>
       </c>
@@ -22062,7 +22062,7 @@
       </c>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>599</v>
       </c>
@@ -22091,7 +22091,7 @@
       </c>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>604</v>
       </c>
@@ -22120,7 +22120,7 @@
       </c>
       <c r="K28" s="17"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>607</v>
       </c>
@@ -22147,7 +22147,7 @@
       <c r="J29" s="16"/>
       <c r="K29" s="17"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>611</v>
       </c>
@@ -22176,7 +22176,7 @@
       </c>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>616</v>
       </c>
@@ -22201,7 +22201,7 @@
       <c r="J31" s="16"/>
       <c r="K31" s="17"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
     </row>
   </sheetData>
@@ -22215,25 +22215,25 @@
   <dimension ref="A1:L137"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="10" width="40.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="40.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -22267,7 +22267,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -22285,7 +22285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -22303,7 +22303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -22329,7 +22329,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -22357,7 +22357,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -22385,7 +22385,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>619</v>
       </c>
@@ -22417,7 +22417,7 @@
       </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>624</v>
       </c>
@@ -22443,7 +22443,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>627</v>
       </c>
@@ -22473,7 +22473,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>631</v>
       </c>
@@ -22503,7 +22503,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>636</v>
       </c>
@@ -22533,7 +22533,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>639</v>
       </c>
@@ -22563,7 +22563,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>641</v>
       </c>
@@ -22593,7 +22593,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>643</v>
       </c>
@@ -22623,7 +22623,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>647</v>
       </c>
@@ -22653,7 +22653,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>649</v>
       </c>
@@ -22683,7 +22683,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>651</v>
       </c>
@@ -22713,7 +22713,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>654</v>
       </c>
@@ -22743,7 +22743,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>656</v>
       </c>
@@ -22773,7 +22773,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>658</v>
       </c>
@@ -22803,7 +22803,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>661</v>
       </c>
@@ -22833,7 +22833,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>663</v>
       </c>
@@ -22863,7 +22863,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>666</v>
       </c>
@@ -22893,7 +22893,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>670</v>
       </c>
@@ -22923,7 +22923,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>672</v>
       </c>
@@ -22953,7 +22953,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>674</v>
       </c>
@@ -22983,7 +22983,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>677</v>
       </c>
@@ -23013,7 +23013,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>679</v>
       </c>
@@ -23043,7 +23043,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>681</v>
       </c>
@@ -23073,7 +23073,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>684</v>
       </c>
@@ -23103,7 +23103,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>686</v>
       </c>
@@ -23133,7 +23133,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>688</v>
       </c>
@@ -23163,7 +23163,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>691</v>
       </c>
@@ -23193,7 +23193,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>693</v>
       </c>
@@ -23223,7 +23223,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>695</v>
       </c>
@@ -23253,7 +23253,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>698</v>
       </c>
@@ -23283,7 +23283,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>700</v>
       </c>
@@ -23313,7 +23313,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>702</v>
       </c>
@@ -23343,7 +23343,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>705</v>
       </c>
@@ -23373,7 +23373,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>707</v>
       </c>
@@ -23403,7 +23403,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>709</v>
       </c>
@@ -23433,7 +23433,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>712</v>
       </c>
@@ -23463,7 +23463,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>714</v>
       </c>
@@ -23493,7 +23493,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>716</v>
       </c>
@@ -23523,7 +23523,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>719</v>
       </c>
@@ -23553,7 +23553,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>721</v>
       </c>
@@ -23583,7 +23583,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>723</v>
       </c>
@@ -23613,7 +23613,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>726</v>
       </c>
@@ -23643,7 +23643,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>728</v>
       </c>
@@ -23673,7 +23673,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>730</v>
       </c>
@@ -23703,7 +23703,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>733</v>
       </c>
@@ -23733,7 +23733,7 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>735</v>
       </c>
@@ -23763,7 +23763,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>737</v>
       </c>
@@ -23793,7 +23793,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>740</v>
       </c>
@@ -23823,7 +23823,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>742</v>
       </c>
@@ -23853,7 +23853,7 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>744</v>
       </c>
@@ -23883,7 +23883,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>747</v>
       </c>
@@ -23913,7 +23913,7 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>749</v>
       </c>
@@ -23943,7 +23943,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>751</v>
       </c>
@@ -23973,7 +23973,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>754</v>
       </c>
@@ -24003,7 +24003,7 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>756</v>
       </c>
@@ -24033,7 +24033,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>758</v>
       </c>
@@ -24063,7 +24063,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>761</v>
       </c>
@@ -24093,7 +24093,7 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>763</v>
       </c>
@@ -24123,7 +24123,7 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>765</v>
       </c>
@@ -24153,7 +24153,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>768</v>
       </c>
@@ -24183,7 +24183,7 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>770</v>
       </c>
@@ -24213,7 +24213,7 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>772</v>
       </c>
@@ -24243,7 +24243,7 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>775</v>
       </c>
@@ -24273,7 +24273,7 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>777</v>
       </c>
@@ -24303,7 +24303,7 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>779</v>
       </c>
@@ -24333,7 +24333,7 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>782</v>
       </c>
@@ -24363,7 +24363,7 @@
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>784</v>
       </c>
@@ -24393,7 +24393,7 @@
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>786</v>
       </c>
@@ -24423,7 +24423,7 @@
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>789</v>
       </c>
@@ -24449,7 +24449,7 @@
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>791</v>
       </c>
@@ -24479,7 +24479,7 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>793</v>
       </c>
@@ -24509,7 +24509,7 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>795</v>
       </c>
@@ -24535,7 +24535,7 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>798</v>
       </c>
@@ -24565,7 +24565,7 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>801</v>
       </c>
@@ -24595,7 +24595,7 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>803</v>
       </c>
@@ -24625,7 +24625,7 @@
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>805</v>
       </c>
@@ -24651,7 +24651,7 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>808</v>
       </c>
@@ -24681,7 +24681,7 @@
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>810</v>
       </c>
@@ -24709,7 +24709,7 @@
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>812</v>
       </c>
@@ -24739,7 +24739,7 @@
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5" t="s">
         <v>814</v>
@@ -24761,7 +24761,7 @@
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5" t="s">
         <v>816</v>
@@ -24785,7 +24785,7 @@
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5" t="s">
         <v>817</v>
@@ -24809,7 +24809,7 @@
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5" t="s">
         <v>818</v>
@@ -24833,7 +24833,7 @@
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5" t="s">
         <v>819</v>
@@ -24855,7 +24855,7 @@
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5" t="s">
         <v>821</v>
@@ -24879,7 +24879,7 @@
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5" t="s">
         <v>822</v>
@@ -24905,7 +24905,7 @@
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5" t="s">
         <v>823</v>
@@ -24929,7 +24929,7 @@
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5" t="s">
         <v>824</v>
@@ -24951,7 +24951,7 @@
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5" t="s">
         <v>826</v>
@@ -24975,7 +24975,7 @@
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5" t="s">
         <v>827</v>
@@ -25001,7 +25001,7 @@
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5" t="s">
         <v>828</v>
@@ -25025,7 +25025,7 @@
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5" t="s">
         <v>829</v>
@@ -25047,7 +25047,7 @@
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5" t="s">
         <v>831</v>
@@ -25071,7 +25071,7 @@
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="5" t="s">
         <v>832</v>
@@ -25097,7 +25097,7 @@
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="5" t="s">
         <v>833</v>
@@ -25121,7 +25121,7 @@
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5" t="s">
         <v>834</v>
@@ -25143,7 +25143,7 @@
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5" t="s">
         <v>836</v>
@@ -25167,7 +25167,7 @@
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="5" t="s">
         <v>837</v>
@@ -25193,7 +25193,7 @@
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="5" t="s">
         <v>838</v>
@@ -25217,7 +25217,7 @@
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5" t="s">
         <v>839</v>
@@ -25239,7 +25239,7 @@
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5" t="s">
         <v>841</v>
@@ -25263,7 +25263,7 @@
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5" t="s">
         <v>842</v>
@@ -25289,7 +25289,7 @@
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5" t="s">
         <v>843</v>
@@ -25313,7 +25313,7 @@
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="5" t="s">
         <v>844</v>
@@ -25335,7 +25335,7 @@
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="5" t="s">
         <v>846</v>
@@ -25359,7 +25359,7 @@
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="5" t="s">
         <v>847</v>
@@ -25385,7 +25385,7 @@
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="5" t="s">
         <v>848</v>
@@ -25409,7 +25409,7 @@
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="5" t="s">
         <v>849</v>
@@ -25431,7 +25431,7 @@
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="5" t="s">
         <v>851</v>
@@ -25455,7 +25455,7 @@
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="5" t="s">
         <v>852</v>
@@ -25481,7 +25481,7 @@
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="5" t="s">
         <v>853</v>
@@ -25505,7 +25505,7 @@
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="5" t="s">
         <v>854</v>
@@ -25527,7 +25527,7 @@
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="5" t="s">
         <v>856</v>
@@ -25551,7 +25551,7 @@
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="5" t="s">
         <v>857</v>
@@ -25577,7 +25577,7 @@
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="5" t="s">
         <v>858</v>
@@ -25601,7 +25601,7 @@
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="5" t="s">
         <v>859</v>
@@ -25623,7 +25623,7 @@
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="5" t="s">
         <v>861</v>
@@ -25647,7 +25647,7 @@
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="5" t="s">
         <v>862</v>
@@ -25673,7 +25673,7 @@
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="5" t="s">
         <v>863</v>
@@ -25697,7 +25697,7 @@
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="5" t="s">
         <v>864</v>
@@ -25719,7 +25719,7 @@
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="5" t="s">
         <v>866</v>
@@ -25743,7 +25743,7 @@
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="5" t="s">
         <v>867</v>
@@ -25769,7 +25769,7 @@
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="5" t="s">
         <v>868</v>
@@ -25793,7 +25793,7 @@
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="5" t="s">
         <v>869</v>
@@ -25815,7 +25815,7 @@
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="5" t="s">
         <v>871</v>
@@ -25839,7 +25839,7 @@
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="5" t="s">
         <v>872</v>
@@ -25865,7 +25865,7 @@
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="5" t="s">
         <v>873</v>
@@ -25889,7 +25889,7 @@
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="5" t="s">
         <v>874</v>
@@ -25911,7 +25911,7 @@
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="5" t="s">
         <v>876</v>
@@ -25935,7 +25935,7 @@
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="5" t="s">
         <v>877</v>
@@ -25961,7 +25961,7 @@
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="5" t="s">
         <v>878</v>
@@ -25995,26 +25995,26 @@
   <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F81" sqref="F81"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
     <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -26048,7 +26048,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -26066,7 +26066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -26084,7 +26084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -26110,7 +26110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -26138,7 +26138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -26166,7 +26166,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>879</v>
       </c>
@@ -26196,7 +26196,7 @@
       </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>882</v>
       </c>
@@ -26224,7 +26224,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>886</v>
       </c>
@@ -26254,7 +26254,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>889</v>
       </c>
@@ -26282,7 +26282,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>892</v>
       </c>
@@ -26310,7 +26310,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>895</v>
       </c>
@@ -26340,7 +26340,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>897</v>
       </c>
@@ -26368,7 +26368,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>900</v>
       </c>
@@ -26396,7 +26396,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>904</v>
       </c>
@@ -26426,7 +26426,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>906</v>
       </c>
@@ -26454,7 +26454,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>909</v>
       </c>
@@ -26482,7 +26482,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>912</v>
       </c>
@@ -26512,7 +26512,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>914</v>
       </c>
@@ -26540,7 +26540,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>917</v>
       </c>
@@ -26568,7 +26568,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>920</v>
       </c>
@@ -26598,7 +26598,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>922</v>
       </c>
@@ -26626,7 +26626,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>925</v>
       </c>
@@ -26654,7 +26654,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>928</v>
       </c>
@@ -26684,7 +26684,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>930</v>
       </c>
@@ -26712,7 +26712,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>933</v>
       </c>
@@ -26740,7 +26740,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>936</v>
       </c>
@@ -26770,7 +26770,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>938</v>
       </c>
@@ -26798,7 +26798,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>941</v>
       </c>
@@ -26826,7 +26826,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>944</v>
       </c>
@@ -26856,7 +26856,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>946</v>
       </c>
@@ -26884,7 +26884,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>949</v>
       </c>
@@ -26912,7 +26912,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>953</v>
       </c>
@@ -26942,7 +26942,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>955</v>
       </c>
@@ -26970,7 +26970,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>958</v>
       </c>
@@ -26998,7 +26998,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>962</v>
       </c>
@@ -27028,7 +27028,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>964</v>
       </c>
@@ -27056,7 +27056,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>967</v>
       </c>
@@ -27084,7 +27084,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>971</v>
       </c>
@@ -27114,7 +27114,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>973</v>
       </c>
@@ -27142,7 +27142,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>976</v>
       </c>
@@ -27172,7 +27172,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>980</v>
       </c>
@@ -27200,7 +27200,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>983</v>
       </c>
@@ -27228,7 +27228,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>986</v>
       </c>
@@ -27258,7 +27258,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="37" t="s">
         <v>988</v>
       </c>
@@ -27286,7 +27286,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="37" t="s">
         <v>991</v>
       </c>
@@ -27314,7 +27314,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="37" t="s">
         <v>994</v>
       </c>
@@ -27344,7 +27344,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="37" t="s">
         <v>996</v>
       </c>
@@ -27372,7 +27372,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="37" t="s">
         <v>999</v>
       </c>
@@ -27402,7 +27402,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>1002</v>
       </c>
@@ -27430,7 +27430,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>1005</v>
       </c>
@@ -27460,7 +27460,7 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>1008</v>
       </c>
@@ -27488,7 +27488,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>1011</v>
       </c>
@@ -27516,7 +27516,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>1015</v>
       </c>
@@ -27546,7 +27546,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>1017</v>
       </c>
@@ -27574,7 +27574,7 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>1020</v>
       </c>
@@ -27602,7 +27602,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>1024</v>
       </c>
@@ -27632,7 +27632,7 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>1026</v>
       </c>
@@ -27660,7 +27660,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>1029</v>
       </c>
@@ -27688,7 +27688,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>1033</v>
       </c>
@@ -27718,7 +27718,7 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>1035</v>
       </c>
@@ -27746,7 +27746,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>1038</v>
       </c>
@@ -27774,7 +27774,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>1042</v>
       </c>
@@ -27804,7 +27804,7 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>1044</v>
       </c>
@@ -27832,7 +27832,7 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="5" t="s">
         <v>1047</v>
@@ -27856,7 +27856,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>1049</v>
       </c>
@@ -27884,7 +27884,7 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>1051</v>
       </c>
@@ -27914,7 +27914,7 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
         <v>1054</v>
       </c>
@@ -27944,7 +27944,7 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>1057</v>
       </c>
@@ -27970,7 +27970,7 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>1060</v>
       </c>
@@ -27998,7 +27998,7 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>1063</v>
       </c>
@@ -28028,7 +28028,7 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>1066</v>
       </c>
@@ -28056,7 +28056,7 @@
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>1069</v>
       </c>
@@ -28086,7 +28086,7 @@
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>1072</v>
       </c>
@@ -28108,7 +28108,7 @@
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>1075</v>
       </c>
@@ -28132,7 +28132,7 @@
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>1078</v>
       </c>
@@ -28154,7 +28154,7 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>1081</v>
       </c>
@@ -28178,7 +28178,7 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>1084</v>
       </c>
@@ -28206,7 +28206,7 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>1087</v>
       </c>
@@ -28232,7 +28232,7 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>1089</v>
       </c>
@@ -28260,7 +28260,7 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>1092</v>
       </c>
@@ -28297,25 +28297,25 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23.83203125" customWidth="1"/>
     <col min="10" max="10" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -28349,7 +28349,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -28367,7 +28367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -28385,7 +28385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -28411,7 +28411,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -28439,7 +28439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -28467,7 +28467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>243</v>
       </c>
@@ -28493,7 +28493,7 @@
       </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>1096</v>
       </c>
@@ -28521,7 +28521,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>1099</v>
       </c>
@@ -28549,7 +28549,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>1102</v>
       </c>
@@ -28577,7 +28577,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>1106</v>
       </c>
@@ -28603,7 +28603,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>1109</v>
       </c>
@@ -28633,7 +28633,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>791</v>
       </c>
@@ -28661,7 +28661,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>1117</v>
       </c>
@@ -28689,7 +28689,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>1120</v>
       </c>
@@ -28715,7 +28715,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>1123</v>
       </c>
@@ -28743,7 +28743,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>1126</v>
       </c>
@@ -28771,7 +28771,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>1128</v>
       </c>
@@ -28797,7 +28797,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>1131</v>
       </c>
@@ -28823,7 +28823,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>1134</v>
       </c>
@@ -28855,7 +28855,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>1026</v>
       </c>
@@ -28887,7 +28887,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>1142</v>
       </c>
@@ -28917,7 +28917,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>1145</v>
       </c>
@@ -28945,7 +28945,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>1149</v>
       </c>
@@ -28975,7 +28975,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>976</v>
       </c>
@@ -29003,7 +29003,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>1154</v>
       </c>
@@ -29029,7 +29029,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>1157</v>
       </c>
@@ -29059,7 +29059,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>1160</v>
       </c>
@@ -29089,7 +29089,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>1165</v>
       </c>
@@ -29104,25 +29104,25 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="30" customWidth="1"/>
-    <col min="10" max="10" width="27.85546875" customWidth="1"/>
+    <col min="10" max="10" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -29156,7 +29156,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -29174,7 +29174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -29192,7 +29192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -29218,7 +29218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -29246,7 +29246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>1166</v>
       </c>
@@ -29268,7 +29268,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
@@ -29296,7 +29296,7 @@
       </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>1169</v>
       </c>
@@ -29326,7 +29326,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>1173</v>
       </c>
@@ -29354,7 +29354,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>1176</v>
       </c>
@@ -29382,7 +29382,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>1178</v>
       </c>
@@ -29412,7 +29412,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>1183</v>
       </c>
@@ -29440,7 +29440,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>1187</v>
       </c>
@@ -29470,7 +29470,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>1190</v>
       </c>
@@ -29500,7 +29500,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>1195</v>
       </c>
@@ -29528,7 +29528,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>1199</v>
       </c>
@@ -29556,7 +29556,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>1203</v>
       </c>
@@ -29584,7 +29584,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>1206</v>
       </c>
@@ -29612,7 +29612,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>1209</v>
       </c>
@@ -29640,7 +29640,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>1212</v>
       </c>
@@ -29668,7 +29668,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>1215</v>
       </c>
@@ -29696,7 +29696,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="5" t="s">
         <v>1218</v>
@@ -29720,7 +29720,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>1221</v>
       </c>
@@ -29750,7 +29750,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>1224</v>
       </c>
@@ -29780,7 +29780,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>1227</v>
       </c>
@@ -29810,7 +29810,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>1230</v>
       </c>
@@ -29840,7 +29840,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>1233</v>
       </c>
@@ -29870,7 +29870,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>1236</v>
       </c>
@@ -29900,7 +29900,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="5" t="s">
         <v>1241</v>
@@ -29924,7 +29924,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="5" t="s">
         <v>1244</v>
@@ -29946,7 +29946,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="5" t="s">
         <v>1246</v>
@@ -29970,7 +29970,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="5" t="s">
         <v>1248</v>
@@ -29992,7 +29992,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="5" t="s">
         <v>1249</v>
@@ -30016,7 +30016,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="5" t="s">
         <v>1251</v>
@@ -30038,7 +30038,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="5" t="s">
         <v>1252</v>
@@ -30062,7 +30062,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="5" t="s">
         <v>1254</v>
@@ -30084,7 +30084,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="5" t="s">
         <v>1255</v>
@@ -30108,7 +30108,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="5" t="s">
         <v>1257</v>
@@ -30130,7 +30130,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>1258</v>
       </c>
@@ -30160,7 +30160,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>1261</v>
       </c>
@@ -30186,7 +30186,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>1264</v>
       </c>
@@ -30216,7 +30216,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>1267</v>
       </c>
@@ -30246,7 +30246,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>1270</v>
       </c>
@@ -30276,7 +30276,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>1273</v>
       </c>
@@ -30306,7 +30306,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>1276</v>
       </c>
@@ -30336,7 +30336,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>1279</v>
       </c>
@@ -30366,7 +30366,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>1282</v>
       </c>
@@ -30396,7 +30396,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>1285</v>
       </c>
@@ -30426,7 +30426,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>1288</v>
       </c>
@@ -30456,7 +30456,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>1291</v>
       </c>
@@ -30484,7 +30484,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>1294</v>
       </c>
@@ -30514,7 +30514,7 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>1296</v>
       </c>
@@ -30544,7 +30544,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>1299</v>
       </c>
@@ -30566,7 +30566,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>1302</v>
       </c>
@@ -30588,7 +30588,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>1304</v>
       </c>
@@ -30622,20 +30622,20 @@
       <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="24.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" customWidth="1"/>
+    <col min="10" max="10" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -30669,7 +30669,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -30687,7 +30687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -30705,7 +30705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>1306</v>
       </c>
@@ -30731,7 +30731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -30759,7 +30759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -30787,7 +30787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>1307</v>
       </c>
@@ -30817,7 +30817,7 @@
       </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>1310</v>
       </c>
@@ -30845,7 +30845,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>1312</v>
       </c>
@@ -30875,7 +30875,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>1316</v>
       </c>
@@ -30905,7 +30905,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>1320</v>
       </c>
@@ -30935,7 +30935,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>1324</v>
       </c>
@@ -30965,7 +30965,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>1328</v>
       </c>
@@ -30987,7 +30987,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>1331</v>
       </c>
@@ -31013,7 +31013,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
@@ -31029,7 +31029,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>1333</v>
       </c>
@@ -31045,7 +31045,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>1334</v>
       </c>
@@ -31061,7 +31061,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>1335</v>
       </c>
@@ -31091,7 +31091,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>1341</v>
       </c>
@@ -31121,7 +31121,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>1346</v>
       </c>
@@ -31149,7 +31149,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>1349</v>
       </c>
@@ -31177,7 +31177,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>1351</v>
       </c>
@@ -31207,7 +31207,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>1356</v>
       </c>
@@ -31223,7 +31223,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>1357</v>
       </c>
@@ -31255,7 +31255,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>1362</v>
       </c>
@@ -31285,7 +31285,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>1366</v>
       </c>
@@ -31315,7 +31315,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>1370</v>
       </c>
@@ -31345,7 +31345,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>1374</v>
       </c>
@@ -31375,7 +31375,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>1378</v>
       </c>
@@ -31405,7 +31405,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>1382</v>
       </c>
@@ -31435,7 +31435,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>1386</v>
       </c>
@@ -31465,7 +31465,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>1390</v>
       </c>
@@ -31488,7 +31488,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
         <v>1392</v>
       </c>
@@ -31516,7 +31516,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="37"/>
       <c r="B34" s="5" t="s">
         <v>1395</v>
@@ -31540,7 +31540,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="37"/>
       <c r="B35" s="5" t="s">
         <v>1396</v>
@@ -31564,7 +31564,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="37"/>
       <c r="B36" s="5" t="s">
         <v>1397</v>
@@ -31588,7 +31588,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="37"/>
       <c r="B37" s="5" t="s">
         <v>1398</v>
@@ -31612,7 +31612,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="37"/>
       <c r="B38" s="5" t="s">
         <v>1399</v>
@@ -31636,7 +31636,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="37"/>
       <c r="B39" s="5" t="s">
         <v>1400</v>
@@ -31661,7 +31661,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="37"/>
       <c r="B40" s="5" t="s">
         <v>1401</v>
@@ -31684,7 +31684,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="37"/>
       <c r="B41" s="5" t="s">
         <v>1402</v>
@@ -31707,7 +31707,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="37"/>
       <c r="B42" s="5" t="s">
         <v>1403</v>
@@ -31730,7 +31730,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="37"/>
       <c r="B43" s="5" t="s">
         <v>1404</v>
@@ -31753,7 +31753,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="37"/>
       <c r="B44" s="5" t="s">
         <v>1405</v>
@@ -31776,7 +31776,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="37"/>
       <c r="B45" s="5" t="s">
         <v>1406</v>
@@ -31799,7 +31799,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="37"/>
       <c r="B46" s="5" t="s">
         <v>1407</v>
@@ -31822,7 +31822,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="37"/>
       <c r="B47" s="5" t="s">
         <v>1408</v>
@@ -31846,7 +31846,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="37"/>
       <c r="B48" s="5" t="s">
         <v>1409</v>
@@ -31870,7 +31870,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="37"/>
       <c r="B49" s="5" t="s">
         <v>1410</v>
@@ -31894,7 +31894,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="37"/>
       <c r="B50" s="5" t="s">
         <v>1411</v>
@@ -31918,7 +31918,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="37"/>
       <c r="B51" s="5" t="s">
         <v>1412</v>
@@ -31942,7 +31942,7 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="37"/>
       <c r="B52" s="5" t="s">
         <v>1413</v>
@@ -31966,7 +31966,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="37"/>
       <c r="B53" s="5" t="s">
         <v>1414</v>
@@ -31990,7 +31990,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="37"/>
       <c r="B54" s="5" t="s">
         <v>1415</v>
@@ -32016,7 +32016,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="37"/>
       <c r="B55" s="5" t="s">
         <v>1416</v>
@@ -32040,7 +32040,7 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="37"/>
       <c r="B56" s="5" t="s">
         <v>1417</v>
@@ -32064,7 +32064,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="37"/>
       <c r="B57" s="5" t="s">
         <v>1418</v>
@@ -32088,7 +32088,7 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="37"/>
       <c r="B58" s="5" t="s">
         <v>1419</v>
@@ -32112,7 +32112,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="37"/>
       <c r="B59" s="5" t="s">
         <v>1420</v>
@@ -32136,7 +32136,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="37"/>
       <c r="B60" s="5" t="s">
         <v>1421</v>
@@ -32160,7 +32160,7 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="5" t="s">
         <v>1422</v>
@@ -32184,7 +32184,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="5" t="s">
         <v>1423</v>
@@ -32208,7 +32208,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="37"/>
       <c r="B63" s="5" t="s">
         <v>1424</v>
@@ -32232,7 +32232,7 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>1425</v>
       </c>
@@ -32260,7 +32260,7 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>1427</v>
       </c>
@@ -32290,7 +32290,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="37"/>
       <c r="B66" s="12" t="s">
         <v>1429</v>
@@ -32312,7 +32312,7 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="23" t="s">
         <v>1432</v>
       </c>
@@ -32334,7 +32334,7 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="s">
         <v>1435</v>
       </c>
@@ -32356,7 +32356,7 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="s">
         <v>1438</v>
       </c>
@@ -32378,7 +32378,7 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
         <v>1441</v>
       </c>
@@ -32400,7 +32400,7 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="s">
         <v>1444</v>
       </c>
@@ -32438,28 +32438,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B6E76A-E230-4D67-B327-F31983349952}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:A15"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.5703125" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.5" customWidth="1"/>
+    <col min="10" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -32493,7 +32493,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -32511,7 +32511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -32529,7 +32529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -32555,7 +32555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -32583,7 +32583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -32611,7 +32611,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>1447</v>
       </c>
@@ -32641,7 +32641,7 @@
       </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>1450</v>
       </c>
@@ -32665,7 +32665,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>1454</v>
       </c>
@@ -32695,7 +32695,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>1459</v>
       </c>
@@ -32721,7 +32721,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>1462</v>
       </c>
@@ -32747,7 +32747,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>1465</v>
       </c>
@@ -32779,7 +32779,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>1470</v>
       </c>
@@ -32809,7 +32809,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>1474</v>
       </c>
@@ -32839,7 +32839,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>1478</v>
       </c>
@@ -32869,7 +32869,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>1481</v>
       </c>
@@ -32899,7 +32899,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>1485</v>
       </c>
@@ -32929,7 +32929,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>1489</v>
       </c>
@@ -32957,7 +32957,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>1493</v>
       </c>
@@ -32987,7 +32987,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>1496</v>
       </c>
@@ -33017,7 +33017,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>1500</v>
       </c>
@@ -33047,7 +33047,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>1505</v>
       </c>
@@ -33077,7 +33077,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>1509</v>
       </c>
@@ -33107,7 +33107,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>1512</v>
       </c>
@@ -33137,7 +33137,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>1515</v>
       </c>
@@ -33167,7 +33167,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>1518</v>
       </c>
@@ -33189,7 +33189,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>1520</v>
       </c>
@@ -33219,7 +33219,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>1523</v>
       </c>
@@ -33249,7 +33249,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>1526</v>
       </c>
@@ -33279,7 +33279,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>1529</v>
       </c>
@@ -33309,7 +33309,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>1532</v>
       </c>
@@ -33339,7 +33339,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>1535</v>
       </c>
@@ -33369,7 +33369,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>1538</v>
       </c>
@@ -33399,7 +33399,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>1542</v>
       </c>
@@ -33425,7 +33425,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>1545</v>
       </c>
@@ -33455,7 +33455,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>1547</v>
       </c>
@@ -33481,7 +33481,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>1550</v>
       </c>
@@ -33511,7 +33511,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>1553</v>
       </c>
@@ -33541,7 +33541,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>1556</v>
       </c>
@@ -33571,7 +33571,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>1561</v>
       </c>
@@ -33597,7 +33597,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>1564</v>
       </c>
@@ -33627,7 +33627,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="37" t="s">
         <v>1566</v>
       </c>
@@ -33657,7 +33657,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="37" t="s">
         <v>1571</v>
       </c>
@@ -33687,7 +33687,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="37" t="s">
         <v>1576</v>
       </c>
@@ -33717,7 +33717,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="37" t="s">
         <v>1581</v>
       </c>
@@ -33747,7 +33747,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="37" t="s">
         <v>1586</v>
       </c>
@@ -33777,7 +33777,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="37" t="s">
         <v>1591</v>
       </c>
@@ -33807,7 +33807,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="37" t="s">
         <v>1596</v>
       </c>
@@ -33835,7 +33835,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>451</v>
       </c>
@@ -33863,7 +33863,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>455</v>
       </c>
@@ -33889,7 +33889,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>458</v>
       </c>
@@ -33915,7 +33915,7 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>461</v>
       </c>
@@ -33937,7 +33937,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>463</v>
       </c>
@@ -33959,7 +33959,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>465</v>
       </c>
@@ -33987,7 +33987,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>1609</v>
       </c>
@@ -34013,7 +34013,7 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>1612</v>
       </c>
@@ -34039,7 +34039,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>1615</v>
       </c>
@@ -34069,7 +34069,7 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>1619</v>
       </c>
@@ -34099,7 +34099,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>1622</v>
       </c>
@@ -34129,7 +34129,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>1627</v>
       </c>
@@ -34159,7 +34159,7 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>1630</v>
       </c>
@@ -34189,7 +34189,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>1633</v>
       </c>
@@ -34219,7 +34219,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>1636</v>
       </c>
